--- a/biology/Médecine/Kresimir_Krnjevic/Kresimir_Krnjevic.xlsx
+++ b/biology/Médecine/Kresimir_Krnjevic/Kresimir_Krnjevic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Krešimir Krnjevic est un neurophysiologiste et professeur québécois né le 7 septembre 1927 à Zagreb et mort le 16 avril 2021[1] à Montréal[2]. Il est arrivé à Montréal en 1964.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Krešimir Krnjevic est un neurophysiologiste et professeur québécois né le 7 septembre 1927 à Zagreb et mort le 16 avril 2021 à Montréal. Il est arrivé à Montréal en 1964.
 Il possède un doctorat en médecine de l'Université d'Édimbourg et des stages postdoctoraux à l'Université de Washington, puis à l'Australian National University, suivis de cinq années à Cambridge.
 Il est professeur physiologie depuis 1964 à l'Université McGill et a été promu professeur émérite en 2001.
 </t>
@@ -513,7 +525,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1975 - Membre de la Société royale du Canada
 1984 - Prix Michel-Sarrazin de la Société canadienne de physiologie
